--- a/Задания по Экселю/Поиск Решения/Задание 1.xlsx
+++ b/Задания по Экселю/Поиск Решения/Задание 1.xlsx
@@ -8,21 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal Computer\Desktop\SKGMI\MyPractice\Задания по Экселю\Поиск Решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F84E2DA-732F-4803-A4B9-4FF9ABA1500F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AFEA01-1C13-4B5F-8E7F-C8365804D744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11550" yWindow="0" windowWidth="17250" windowHeight="15600" xr2:uid="{BF984C28-04E8-409E-A8DF-3488A28948E9}"/>
+    <workbookView xWindow="14415" yWindow="0" windowWidth="14385" windowHeight="15600" activeTab="1" xr2:uid="{73900D4C-586C-4AD0-8549-5135E1ABD07C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчет об устойчивости 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$C$19</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Лист1!$B$3:$C$3</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Лист1!$B$3:$C$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Лист1!$E$8:$E$10</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Лист1!$E$6</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Лист1!$F$8:$F$10</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,40 +70,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Затраты</t>
-  </si>
-  <si>
-    <t>электроэнергия</t>
-  </si>
-  <si>
-    <t>сырье</t>
-  </si>
-  <si>
-    <t>рабочее время</t>
-  </si>
-  <si>
-    <t>Прибыль</t>
-  </si>
-  <si>
-    <t>Изделия</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Ресурсы</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+  <si>
+    <t>Переменные</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>Имеющиеся ресурсы</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет об устойчивости</t>
+  </si>
+  <si>
+    <t>Лист: [Задание__1.xlsx]Лист1</t>
+  </si>
+  <si>
+    <t>Отчет создан: 18.11.2023 20:26:08</t>
+  </si>
+  <si>
+    <t>Ячейки переменных</t>
+  </si>
+  <si>
+    <t>Ячейка</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Окончательное</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Приведенн.</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Коэффициент</t>
+  </si>
+  <si>
+    <t>Допустимое</t>
+  </si>
+  <si>
+    <t>Увеличение</t>
+  </si>
+  <si>
+    <t>Уменьшение</t>
+  </si>
+  <si>
+    <t>Тень</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Ограничение</t>
+  </si>
+  <si>
+    <t>Правая сторона</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>$C$3</t>
+  </si>
+  <si>
+    <t>$E$8</t>
+  </si>
+  <si>
+    <t>$E$9</t>
+  </si>
+  <si>
+    <t>$E$10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,7 +174,26 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -95,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,18 +210,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -139,28 +239,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color indexed="23"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="23"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -168,29 +280,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,102 +619,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B5BC35-4A6A-4FC0-AEB2-4697DB4953A1}">
-  <dimension ref="A2:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1D2EF3-08B0-4689-B32E-FAD46A50E5C1}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1641.0256410256411</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>650</v>
+      </c>
+      <c r="G9" s="6">
+        <v>150</v>
+      </c>
+      <c r="H9" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>974.35897435897436</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>800</v>
+      </c>
+      <c r="G10" s="7">
+        <v>240.00000000000003</v>
+      </c>
+      <c r="H10" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>3200000</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1E+30</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>1600000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1600000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>492307.69230769231</v>
+      </c>
+      <c r="H16" s="6">
+        <v>292307.69230769231</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
+        <v>680000</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="F17" s="7">
+        <v>680000</v>
+      </c>
+      <c r="G17" s="7">
+        <v>152000</v>
+      </c>
+      <c r="H17" s="7">
+        <v>160000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B09216-B436-4D7B-B74C-EFA8287A88C2}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>1641.0256410256411</v>
+      </c>
+      <c r="C3" s="4">
+        <v>974.35897435897436</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>650</v>
+      </c>
+      <c r="C6" s="3">
+        <v>800</v>
+      </c>
+      <c r="E6" s="3">
+        <f>SUMPRODUCT(B$3:C$3,B6:C6)</f>
+        <v>1846153.8461538462</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
         <v>1000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C8" s="3">
         <v>1600</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E8" s="3">
+        <f t="shared" ref="E8:E10" si="0">SUMPRODUCT(B$3:C$3,B8:C8)</f>
+        <v>3200000</v>
+      </c>
+      <c r="F8" s="3">
         <v>5000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
         <v>500</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C9" s="3">
         <v>800</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="F9" s="3">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
         <v>260</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C10" s="3">
         <v>260</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
         <v>680000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>650</v>
-      </c>
-      <c r="C7" s="4">
-        <v>800</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="F10" s="3">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
